--- a/parse_headers/header_data.xlsx
+++ b/parse_headers/header_data.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="functions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="variables" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Functions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Global Variables" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Macros" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Includes" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,94 +524,229 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Variable Declaration</t>
+          <t>extern u16 Timer_Counter;</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>extern u16 Timer_Counter;</t>
+          <t>extern u8 Detected_Mine;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>extern u8 Detected_Mine;</t>
+          <t>extern u16 i;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>extern u16 i;</t>
+          <t>extern u8 flag1;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>extern u8 flag1;</t>
+          <t>extern u8 flag2;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>extern u8 flag2;</t>
+          <t>extern u8 flag3;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>extern u8 flag3;</t>
+          <t>extern u8 steps;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>extern u8 Total_Steps;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>#define INC_MINES_DETECTOR_H
+#include "StdTypes.h"  // Include for standard types</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>#define IN1    DIO_PORTD, DIO_PIN0                // Macro definition for IN1 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>#define IN2    DIO_PORTD, DIO_PIN1                // Macro definition for IN2 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>#define IN3    DIO_PORTD, DIO_PIN2                // Macro definition for IN3 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>#define IN4    DIO_PORTD, DIO_PIN3                // Macro definition for IN4 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>#define IR     DIO_PORTC, DIO_PIN0                // Macro definition for IR pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>extern u8 steps;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>extern u8 Total_Steps;</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>#define BUZZ   DIO_PORTD, DIO_PIN7                // Macro definition for BUZZ pin</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>#include "StdTypes.h"</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>#include "Dio.h"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>#include "Registers.h"</t>
         </is>
       </c>
     </row>
